--- a/data/income_statement/1digit/total/I_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/I_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>I-Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>I-Accommodation and food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>23607541.43611</v>
+        <v>23608127.52964</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>28504846.13728</v>
+        <v>28505236.55463</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>36351330.11150999</v>
+        <v>36353134.12241</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>41316396.92276</v>
+        <v>41338880.58542001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>48411854.22191001</v>
+        <v>48643506.47957</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>57482766.01605999</v>
+        <v>58087153.27785001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>62880805.2877</v>
+        <v>66155143.85123999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>64190572.63164999</v>
+        <v>64715841.7377</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>84551724.50867</v>
+        <v>84551724.50866999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>117363139.8469</v>
+        <v>117673048.19241</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>143485745.78234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>145726952.08229</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>101246737.625</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>22046102.36437</v>
+        <v>22046666.1827</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>26584556.78339</v>
+        <v>26584944.43634</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>34204483.30571999</v>
+        <v>34206287.31661999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>39050845.3928</v>
+        <v>39072536.32407</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>45603364.15640999</v>
+        <v>45829444.5505</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>54485259.87769999</v>
+        <v>55060328.32311001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>59310353.13603999</v>
+        <v>62509179.17648</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>60874194.29211</v>
+        <v>61392550.70672999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>80357999.75226</v>
+        <v>80357999.75226001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>109843479.56673</v>
+        <v>110140726.63623</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>136028698.77598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>138206147.49194</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>95996633.222</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1092992.15989</v>
@@ -1037,151 +953,171 @@
         <v>1367559.62454</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1323140.529</v>
+        <v>1323530.11221</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1677424.65393</v>
+        <v>1678942.25542</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1775081.83065</v>
+        <v>1784606.53407</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2070096.21406</v>
+        <v>2095931.8654</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1464675.48188</v>
+        <v>1464678.08578</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1923640.23378</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3003829.677660001</v>
+        <v>3010712.82125</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3462451.73358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3478766.48158</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2090592.428</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>468446.91185</v>
+        <v>468469.1870499999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>684458.6615500001</v>
+        <v>684461.4259500001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>779287.1812499999</v>
+        <v>779287.18125</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>942411.00096</v>
+        <v>942814.1491400001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1131065.41157</v>
+        <v>1135119.67365</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1222424.30771</v>
+        <v>1242218.42067</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1500355.9376</v>
+        <v>1550032.80936</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1851702.85766</v>
+        <v>1858612.94519</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>2270084.52263</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4515830.602510001</v>
+        <v>4521608.73493</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3994595.27278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4042038.10877</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3159511.975</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>258010.69578</v>
+        <v>258010.8130900001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>280083.2606699999</v>
+        <v>280083.51494</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>353245.86446</v>
+        <v>353247.4639</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>427956.08737</v>
+        <v>427974.06618</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>449800.3689100001</v>
+        <v>452113.37347</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>647764.9657699999</v>
+        <v>665399.5380400001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>811716.2268999999</v>
+        <v>854070.81695</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>927545.66351</v>
+        <v>940030.5485099999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1245037.78453</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3432820.5712</v>
+        <v>3433027.75874</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2291366.59001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2319607.46122</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2243668.203</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>125404.36825</v>
+        <v>125404.48556</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>136044.59579</v>
+        <v>136044.85006</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>168201.8454</v>
+        <v>168203.44484</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>214269.29493</v>
+        <v>214286.33774</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>247701.6677</v>
+        <v>249308.99029</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>387841.68128</v>
+        <v>391057.18139</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>459801.3487099999</v>
+        <v>473965.12595</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>603658.87687</v>
+        <v>607453.7243400001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>759123.1544800001</v>
+        <v>759123.15448</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>920818.37957</v>
+        <v>920988.2327200002</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1242633.24086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1248292.20661</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1504804.41</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>102071.15125</v>
@@ -1193,40 +1129,45 @@
         <v>152526.10154</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>180839.11365</v>
+        <v>180840.04965</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>165983.4165</v>
+        <v>166672.97632</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>213875.4871300001</v>
+        <v>227567.44934</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>299275.61245</v>
+        <v>326751.0394</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>262134.75902</v>
+        <v>270695.4717</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>424336.45206</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2425323.10454</v>
+        <v>2425356.49967</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>827312.0750999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>849180.36655</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>574042.281</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>30535.17628</v>
+        <v>30535.17627999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>36423.78043</v>
+        <v>36423.78042999999</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>32517.91752</v>
@@ -1235,226 +1176,256 @@
         <v>32847.67879</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>36115.28470999999</v>
+        <v>36131.40686000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>46047.79736</v>
+        <v>46774.90731</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>52639.26574</v>
+        <v>53354.6516</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>61752.02762000001</v>
+        <v>61881.35247</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>61578.17799</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>86679.08709</v>
+        <v>86683.02635</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>221421.2740499999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>222134.88806</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>164821.512</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>23349530.74033</v>
+        <v>23350116.71655</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>28224762.87661</v>
+        <v>28225153.03969</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>35998084.24705</v>
+        <v>35999886.65851</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>40888440.83539001</v>
+        <v>40910906.51924001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>47962053.853</v>
+        <v>48191393.1061</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>56835001.05029</v>
+        <v>57421753.73981</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>62069089.0608</v>
+        <v>65301073.03429</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>63263026.96814</v>
+        <v>63775811.18919</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>83306686.72414002</v>
+        <v>83306686.72414</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>113930319.2757</v>
+        <v>114240020.43367</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>141194379.19233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>143407344.62107</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>99003069.42200001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>17214097.10833</v>
+        <v>17214610.75395</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>20996487.71477</v>
+        <v>20996863.40026</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26086978.33725</v>
+        <v>26088459.42174</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>30368719.00128</v>
+        <v>30385886.44167</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>35660384.52396</v>
+        <v>35840401.48159</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>42559174.87185</v>
+        <v>42936484.76353001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>47391233.16636</v>
+        <v>49544273.02532001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>51116966.22318</v>
+        <v>51551090.32360001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>63760717.34889999</v>
+        <v>63760717.34890001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>80032444.72296999</v>
+        <v>80277894.12280999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>101345610.26944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>103111040.10992</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>79466906.339</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3350656.20165</v>
+        <v>3350667.50275</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3880286.109429999</v>
+        <v>3880415.90919</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4805545.70623</v>
+        <v>4805652.53009</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5791362.00699</v>
+        <v>5798976.59437</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6915154.56016</v>
+        <v>6928256.242930001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8739700.232709998</v>
+        <v>8761752.281779999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9596242.16784</v>
+        <v>10411657.40237</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11362925.62418</v>
+        <v>11379841.25824</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>14017240.44417</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16854028.45308</v>
+        <v>16897125.94746</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20384733.77962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20686693.29553</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>17854472.603</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2275647.06713</v>
+        <v>2275693.70524</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>2665035.43627</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3360942.39991</v>
+        <v>3361523.86881</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3796907.54107</v>
+        <v>3798944.7843</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4234322.01518</v>
+        <v>4240011.91063</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4784174.60253</v>
+        <v>4818284.64718</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5450471.415560001</v>
+        <v>5793181.21727</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6788915.372479999</v>
+        <v>6799210.71733</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>9438098.032070002</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>10222424.50062</v>
+        <v>10313239.63823</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13770394.82674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14096445.25605</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15173425.596</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>11534810.31582</v>
+        <v>11535266.02223</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14407654.04087</v>
+        <v>14407899.9266</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>17815902.47088</v>
+        <v>17816695.26261</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>20720915.00816</v>
+        <v>20728430.61794</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>24407132.70835</v>
+        <v>24568358.08776</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>28888541.92676</v>
+        <v>29208588.8811</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>32133357.31526</v>
+        <v>33128055.75179</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>32698026.56454</v>
+        <v>33102622.1106</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>39911773.26541</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>52713948.39382</v>
+        <v>52823837.66059</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>66793547.23228001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>67916930.83482</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>45950872.464</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>52983.52372999999</v>
@@ -1466,118 +1437,133 @@
         <v>104587.76023</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>59534.44506000001</v>
+        <v>59534.44506</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>103775.24027</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>146758.10985</v>
+        <v>147858.95347</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>211162.2677000001</v>
+        <v>211378.65389</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>267098.66198</v>
+        <v>269416.23743</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>393605.60725</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>242043.37545</v>
+        <v>243690.87653</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>396934.4308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>410970.7235200001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>488135.676</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>6135433.632</v>
+        <v>6135505.9626</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>7228275.16184</v>
+        <v>7228289.63943</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9911105.9098</v>
+        <v>9911427.23677</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>10519721.83411</v>
+        <v>10525020.07757</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>12301669.32904</v>
+        <v>12350991.62451</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>14275826.17844</v>
+        <v>14485268.97628</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14677855.89444</v>
+        <v>15756800.00897</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12146060.74496</v>
+        <v>12224720.86559</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>19545969.37524</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>33897874.55273</v>
+        <v>33962126.31086</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>39848768.92289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>40296304.51115</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>19536163.083</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5133356.51002</v>
+        <v>5133613.838339999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>6078185.05775</v>
+        <v>6078229.425009999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>7319473.87296</v>
+        <v>7319581.17825</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>8559663.17784</v>
+        <v>8564152.742839999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10002966.47121</v>
+        <v>10052589.86193</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>12006492.09635</v>
+        <v>12152523.2682</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>13009039.45695</v>
+        <v>13989147.17534</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>14678044.38077</v>
+        <v>14758645.53865</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>16921156.0511</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>21418476.82668</v>
+        <v>21503127.02828</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>26369110.56652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>26848331.3137</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>22243407.476</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4511.33404</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5153.315460000001</v>
+        <v>5153.31546</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>4690.89804</v>
@@ -1586,211 +1572,236 @@
         <v>8243.0681</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5073.610119999999</v>
+        <v>5073.61012</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>7148.299919999999</v>
+        <v>7236.24593</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4817.82654</v>
+        <v>4859.366540000002</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>10079.64745</v>
+        <v>10085.34902</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>11258.00788</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15844.54132</v>
+        <v>16143.06217</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>20928.90816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22392.04937</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>21737.741</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>833046.7692599999</v>
+        <v>833060.0203399999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1007765.73925</v>
+        <v>1007765.76425</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1310970.33781</v>
+        <v>1311020.98021</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1640283.49548</v>
+        <v>1640492.6501</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1930156.2442</v>
+        <v>1944503.4854</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2499541.51859</v>
+        <v>2521930.62424</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2596520.14989</v>
+        <v>3029405.52394</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3420089.156769999</v>
+        <v>3429249.46806</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>4309935.496850001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5581896.3221</v>
+        <v>5593444.03712</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6885717.9048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6959402.039690001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5390317.139</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4295798.40672</v>
+        <v>4296042.48396</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5065266.00304</v>
+        <v>5065310.345299999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6003812.637109999</v>
+        <v>6003869.3</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>6911136.614260001</v>
+        <v>6915417.02464</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8067736.616889999</v>
+        <v>8103012.76641</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>9499802.27784</v>
+        <v>9623356.398029998</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10407701.48052</v>
+        <v>10954882.28486</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>11247875.57655</v>
+        <v>11319310.72157</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>12599962.54637</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>15820735.96326</v>
+        <v>15893539.92899</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>19462463.75356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19866537.22464</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>16831352.596</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1002077.12198</v>
+        <v>1001892.12426</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1150090.10409</v>
+        <v>1150060.21442</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2591632.03684</v>
+        <v>2591846.05852</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1960058.65627</v>
+        <v>1960867.33473</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2298702.857830001</v>
+        <v>2298401.762579999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2269334.08209</v>
+        <v>2332745.70808</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1668816.43749</v>
+        <v>1767652.83363</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2531983.63581</v>
+        <v>-2533924.67306</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2624813.32414</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>12479397.72605</v>
+        <v>12458999.28258</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13479658.35637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13447973.19745</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-2707244.393</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1658706.30985</v>
+        <v>1658706.77831</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1960081.02217</v>
+        <v>1960081.09822</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3140457.55033</v>
+        <v>3140458.032589999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2974989.597209999</v>
+        <v>2975437.63634</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4479479.45103</v>
+        <v>4501002.55728</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5568965.81694</v>
+        <v>5675345.882629999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7760007.71244</v>
+        <v>8442600.92306</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6728169.27578</v>
+        <v>6819996.92672</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9024317.113709999</v>
+        <v>9024317.113710001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>26709271.97668</v>
+        <v>26712703.14794</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15496528.22353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>15628155.31021</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19931974.618</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>23029.61396000001</v>
+        <v>23029.61396</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>26665.52262</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>65269.00089</v>
+        <v>65269.00089000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>63028.81920000001</v>
+        <v>63028.8192</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>209362.12356</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>135185.02393</v>
+        <v>135505.11879</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>85387.15319</v>
+        <v>121419.85186</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>453149.07497</v>
+        <v>453166.78611</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>225238.08852</v>
@@ -1799,25 +1810,30 @@
         <v>214377.66271</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>343156.56866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>343336.45532</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>140984.441</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3737.59042</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>7354.31736</v>
+        <v>7354.317359999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>16100.75182</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>58582.58078000001</v>
+        <v>58582.58078</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>29386.13771</v>
@@ -1826,25 +1842,30 @@
         <v>77357.25682</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>180405.62119</v>
+        <v>187709.04455</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>63667.41847</v>
+        <v>64977.55458</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>211106.05348</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>44949.28817</v>
+        <v>44949.28816999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>168679.78243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>168679.7824300001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>124956.742</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>191030.03395</v>
@@ -1853,61 +1874,66 @@
         <v>191539.02775</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>380668.62618</v>
+        <v>380668.6261800001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>490672.2914</v>
+        <v>491017.95024</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>493249.69598</v>
+        <v>494819.3411300001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>662264.8291</v>
+        <v>667248.402</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>540173.30538</v>
+        <v>780554.3038700001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>852193.8317099999</v>
+        <v>858364.8993</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1167403.96804</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1300174.1252</v>
+        <v>1300729.72765</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1442283.93249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1454324.33853</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1261534.531</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5853.49546</v>
+        <v>5853.495459999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9577.047839999997</v>
+        <v>9577.047839999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>15352.36085</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>10291.4852</v>
+        <v>10293.41458</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7844.51316</v>
+        <v>7844.513160000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>12605.74728</v>
+        <v>12605.80692</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>25192.74323</v>
+        <v>25340.64137</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>14868.6249</v>
+        <v>14871.53973</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>10078.05264</v>
@@ -1916,16 +1942,21 @@
         <v>42890.96541</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>37453.89254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>37517.17984</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>20302.672</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>56310.19189</v>
+        <v>56310.19188999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>21565.51834</v>
@@ -1934,34 +1965,39 @@
         <v>22673.79375</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>24536.39625000001</v>
+        <v>24536.39625</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>97898.71184999999</v>
+        <v>97898.71185000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>94993.44205000001</v>
+        <v>95010.75305000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>89317.38625999998</v>
+        <v>90566.29503000002</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>110446.13809</v>
+        <v>110627.49739</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>122707.98039</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>148508.23165</v>
+        <v>148508.52865</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>145494.21937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>146327.16089</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>121960.555</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>14905.80875</v>
@@ -1976,16 +2012,16 @@
         <v>39883.2196</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>147425.83565</v>
+        <v>147434.8339</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>366790.4351199999</v>
+        <v>380682.1186899999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>254462.76461</v>
+        <v>258340.14833</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>136819.89748</v>
+        <v>136834.28215</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>113786.18252</v>
@@ -1994,55 +2030,65 @@
         <v>466342.0449100001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>378950.54928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>378956.47033</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>122276.232</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>863938.92083</v>
+        <v>863939.38929</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1243145.19154</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1956007.90588</v>
+        <v>1956008.24166</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1644250.60841</v>
+        <v>1644293.2371</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2679059.38592</v>
+        <v>2697052.96975</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3337649.89631</v>
+        <v>3408644.6102</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5576623.8768</v>
+        <v>5907635.194270001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4052470.09684</v>
+        <v>4112251.24161</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6057144.86395</v>
+        <v>6057144.863950001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>22881406.39124</v>
+        <v>22883414.37515</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10961354.09162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11022931.61521</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16425619.754</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4207.06314</v>
+        <v>4207.063139999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>2652.72716</v>
@@ -2060,10 +2106,10 @@
         <v>3044.42551</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1338.63753</v>
+        <v>1842.96059</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>8510.715410000003</v>
+        <v>8775.355869999999</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>3017.56181</v>
@@ -2072,25 +2118,30 @@
         <v>3859.74274</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>15869.34472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>15866.99632</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>16629.349</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1242.06242</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>3164.691290000001</v>
+        <v>3164.69129</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>587.1799700000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>836.1119999999999</v>
+        <v>836.1120000000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>1315.59602</v>
@@ -2099,7 +2150,7 @@
         <v>1666.09545</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>983.32569</v>
+        <v>983.3256899999999</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>2899.68612</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>1106.89668</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1462.045</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>494451.52903</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>416238.4175599999</v>
+        <v>416238.49361</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>651005.86422</v>
+        <v>651006.0107000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>640907.6005400001</v>
+        <v>640965.42276</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>804076.4141599999</v>
+        <v>806027.2931799999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>877408.6653700002</v>
+        <v>893581.2951999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1006122.89856</v>
+        <v>1068209.1575</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1033143.79179</v>
+        <v>1057228.08386</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1112662.45954</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1604097.29427</v>
+        <v>1604964.58217</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2002178.94574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2059108.41466</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1696248.297</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1066608.48298</v>
+        <v>1066608.51846</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1175929.44859</v>
+        <v>1175963.33146</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3318878.28727</v>
+        <v>3318895.52144</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1571698.52534</v>
+        <v>1571837.9618</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5077990.550789999</v>
+        <v>5135952.471910001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3935634.06682</v>
+        <v>3988309.366039999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8443726.06969</v>
+        <v>8998752.654270001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7721652.843769999</v>
+        <v>7784461.25791</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>10824646.37813</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31321824.07677</v>
+        <v>31323034.3292</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15592820.09959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15713745.77455</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>28913423.891</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>61730.49371999998</v>
+        <v>61730.49371999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>91904.32576000001</v>
+        <v>91904.32575999999</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>126281.26599</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>141843.97325</v>
+        <v>141845.16454</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>167368.22041</v>
+        <v>168633.85516</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>205345.31131</v>
+        <v>208913.1786</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>229351.84639</v>
+        <v>252018.13142</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>226751.74082</v>
+        <v>227292.21524</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>288787.94438</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>409013.82627</v>
+        <v>409164.35202</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>523149.35477</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>516630.00912</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>332895.247</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>70041.29478000001</v>
+        <v>70041.29478</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>59236.48378</v>
+        <v>59236.48378000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>87641.22926000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>49319.84281999999</v>
+        <v>49319.84282000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>103812.57113</v>
+        <v>104037.42197</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>102867.41033</v>
+        <v>105973.11961</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>164729.90563</v>
+        <v>176955.35856</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>130848.6705</v>
+        <v>132118.17156</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>88183.98925</v>
+        <v>88183.98924999998</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>128971.74038</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>734577.6026500001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>732594.0045600001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>406267.287</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>19448.86786</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>19357.37095999999</v>
+        <v>19357.37096</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>37285.89962</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>31721.02753000001</v>
+        <v>31721.02753</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>31580.17413</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>18808.70895</v>
+        <v>19231.64321000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>18398.35207</v>
+        <v>21151.27601000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6298.25135</v>
+        <v>6298.251350000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5029.28432</v>
+        <v>5029.284320000002</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>35409.87502000001</v>
+        <v>35409.87501999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>12687.9813</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>59925.314</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>771356.28184</v>
+        <v>771356.3173199999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>903575.5800599999</v>
+        <v>903575.58342</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2741848.13205</v>
+        <v>2741848.6818</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1030705.32526</v>
+        <v>1030780.11522</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4421923.352390001</v>
+        <v>4478028.98315</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3187386.46606</v>
+        <v>3229575.54549</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7750625.96209</v>
+        <v>8059140.08998</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6900687.9032</v>
+        <v>6960855.90728</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9815136.620750003</v>
+        <v>9815136.620750001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>30363009.52383</v>
+        <v>30363810.56206001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13740383.43343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13861772.42964</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>27549372.992</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2931.4937</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>564.0343800000001</v>
+        <v>564.0343800000002</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>12492.24972</v>
@@ -2369,28 +2455,33 @@
         <v>3869.45219</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4020.011470000001</v>
+        <v>4020.01147</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1776.48118</v>
+        <v>2173.85496</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>4958.64457</v>
+        <v>5293.595600000001</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1495.82163</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>5843.827800000001</v>
+        <v>5913.93312</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>16645.99325</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>10406.116</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1546.11982</v>
@@ -2408,10 +2499,10 @@
         <v>502.04848</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>270.8404</v>
+        <v>454.22528</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>751.8271999999999</v>
+        <v>842.7818599999999</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>262.84254</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>4721.68554</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1302.012</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>139553.93126</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>99656.44278999999</v>
+        <v>99690.3223</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>311771.95126</v>
+        <v>311788.63568</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>315250.02477</v>
+        <v>315313.47998</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>348934.73206</v>
+        <v>349300.53683</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>416935.3182999999</v>
+        <v>420141.64238</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>278091.69513</v>
+        <v>486471.16148</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>451844.7907899999</v>
+        <v>452340.2743399999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>625823.4225999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>379332.34036</v>
+        <v>379520.92349</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>560654.04865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>568693.67114</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>553254.923</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>996581.5535200001</v>
+        <v>996583.0228799998</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>946729.5750200002</v>
+        <v>946729.57502</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1804355.20949</v>
+        <v>1804355.75585</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1471369.01781</v>
+        <v>1472133.15377</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2845519.02341</v>
+        <v>2858058.50388</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2400059.66536</v>
+        <v>2496547.70827</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3836660.09571</v>
+        <v>4221472.34558</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4589484.50793</v>
+        <v>4617796.12149</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>5878192.51159</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12841052.71283</v>
+        <v>12842189.40891</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9085321.749229999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9150480.2403</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>12924057.026</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>699655.63362</v>
+        <v>699657.10298</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>639569.9405200001</v>
+        <v>639569.9405199999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1062219.27792</v>
+        <v>1062219.82428</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1065795.70781</v>
+        <v>1066559.84377</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1782715.2763</v>
+        <v>1791816.54556</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1677550.46542</v>
+        <v>1696932.11399</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2364691.744479999</v>
+        <v>2487933.30953</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2757024.88228</v>
+        <v>2777828.59072</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>3496031.15138</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6379371.3043</v>
+        <v>6380443.889640001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5440447.6621</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5487706.75966</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6474768.922</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>296925.9199</v>
@@ -2555,241 +2666,271 @@
         <v>307159.6345</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>742135.93157</v>
+        <v>742135.9315699999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>405573.3099999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1062803.74711</v>
+        <v>1066241.95832</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>722509.1999400001</v>
+        <v>799615.5942800001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1471968.351229999</v>
+        <v>1733539.03605</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1832459.62565</v>
+        <v>1839967.53077</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2382161.36021</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6461681.408530001</v>
+        <v>6461745.519269999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3644874.08713</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3662773.48064</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6449288.104</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>597593.3953300001</v>
+        <v>597407.3612300002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>987512.10265</v>
+        <v>987448.40616</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>608856.0904100001</v>
+        <v>609052.8138200002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1891980.71033</v>
+        <v>1892333.8555</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1145327.26534</v>
+        <v>-1194606.65593</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1502606.16685</v>
+        <v>1523234.5164</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2851562.01547</v>
+        <v>-3009971.24316</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8114951.71173</v>
+        <v>-8116185.12574</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-5053708.451870001</v>
+        <v>-5053708.45187</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4974207.08687</v>
+        <v>-4993521.30759</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4298044.73108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4211902.49281</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-24612750.692</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>377886.53877</v>
+        <v>377920.96849</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>394887.37318</v>
+        <v>394960.47613</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>507927.8761299999</v>
+        <v>507945.70672</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>491815.5962</v>
+        <v>491854.97107</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1195062.32405</v>
+        <v>1197471.89952</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1421802.14057</v>
+        <v>1501897.05622</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1482458.45684</v>
+        <v>1659294.60589</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1503923.50928</v>
+        <v>1513861.93398</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1690770.03506</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1711886.22731</v>
+        <v>1713603.27019</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2728306.3527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2755238.33736</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2170379.804</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>16989.74577</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5158.67469</v>
+        <v>5218.197690000002</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>10347.22694</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12046.03729</v>
+        <v>12050.27115</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6730.44087</v>
+        <v>6743.398239999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>10947.84609</v>
+        <v>11504.25801</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>12392.32665</v>
+        <v>13656.22548</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21434.21698</v>
+        <v>22324.53573</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>23989.28652</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>99330.45525999997</v>
+        <v>99463.76901999998</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>47416.85663999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>47741.58095</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>71369.10799999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>360896.7930000001</v>
+        <v>360931.22272</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>389728.6984899999</v>
+        <v>389742.2784400001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>497580.64919</v>
+        <v>497598.47978</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>479769.55891</v>
+        <v>479804.69992</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1188331.88318</v>
+        <v>1190728.50128</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1410854.29448</v>
+        <v>1490392.79821</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1470066.13019</v>
+        <v>1645638.38041</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1482489.2923</v>
+        <v>1491537.39825</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1666780.74854</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1612555.77205</v>
+        <v>1614139.50117</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2680889.49606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2707496.75641</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2099010.696</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>349589.31485</v>
+        <v>349590.8575399999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>427574.27107</v>
+        <v>428176.4920800001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1995320.64912</v>
+        <v>1995331.02512</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>663067.16176</v>
+        <v>663196.3432599999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>677181.51478</v>
+        <v>679414.1169900001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1407472.37396</v>
+        <v>1471010.05606</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>898968.62193</v>
+        <v>940085.4305400001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1798274.26087</v>
+        <v>1807590.68377</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>2133595.92519</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2286809.51062</v>
+        <v>2289085.98905</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1981680.51153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2020621.47781</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1957593.859</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>30669.80526</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>34881.37943</v>
+        <v>34881.37943000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>52334.60315999999</v>
+        <v>52334.60316</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>57492.89858</v>
@@ -2798,145 +2939,165 @@
         <v>81975.48364999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>76496.40646000003</v>
+        <v>77281.65399999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>77460.97429</v>
+        <v>79691.85354000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>95316.06074000002</v>
+        <v>97647.13092000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>100196.02919</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>100910.80605</v>
+        <v>100913.52413</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>119852.94556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>119889.12493</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>237692.376</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>34217.15241999999</v>
+        <v>34218.52111</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>46647.25801999999</v>
+        <v>46721.92765</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>39979.1635</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>37845.68378</v>
+        <v>37846.77856999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>74124.55525</v>
+        <v>74218.15813000003</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>60294.72083</v>
+        <v>60535.00694</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>76600.21166</v>
+        <v>77673.24473000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>68459.05106</v>
+        <v>70413.07937000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>55055.84183</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>88386.85420999999</v>
+        <v>88871.22979</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>294689.69234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>295234.26599</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>109736.822</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>284702.35717</v>
+        <v>284702.53117</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>346045.63362</v>
+        <v>346573.185</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1903006.88246</v>
+        <v>1903017.25846</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>567728.5794</v>
+        <v>567856.6661099999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>521081.47588</v>
+        <v>523220.47521</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1270681.24667</v>
+        <v>1333193.39512</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>744907.4359800001</v>
+        <v>782720.3322699999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1634499.14907</v>
+        <v>1639530.47348</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1978344.05417</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2097511.85036</v>
+        <v>2099301.23513</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1567137.87363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1605498.08689</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1610164.661</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>625890.61925</v>
+        <v>625737.47218</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>954825.2047599999</v>
+        <v>954232.39021</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-878536.6825800001</v>
+        <v>-878332.5045799999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1720729.14477</v>
+        <v>1720992.48331</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-627446.4560700002</v>
+        <v>-676548.8733999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1516935.93346</v>
+        <v>1554121.51656</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2268072.18056</v>
+        <v>-2290762.06781</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-8409302.46332</v>
+        <v>-8409913.875530001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-5496534.342</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-5549130.370180001</v>
+        <v>-5569004.02645</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5044670.57225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4946519.352360001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-24399964.747</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>229463.27384</v>
@@ -2945,73 +3106,81 @@
         <v>304298.41877</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>438368.9302300001</v>
+        <v>438392.689</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>441233.3725700001</v>
+        <v>441419.2359</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>472635.14968</v>
+        <v>472749.98349</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>577971.52018</v>
+        <v>589618.17615</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>565373.0984500002</v>
+        <v>599357.9622299999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>407281.48594</v>
+        <v>416306.57137</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>628380.7389700002</v>
+        <v>628380.7389700001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1205658.93719</v>
+        <v>1208724.35171</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1549676.38591</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1563419.84486</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>655879.732</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>396427.34541</v>
+        <v>396274.1983400001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>650526.78599</v>
+        <v>649933.9714400001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1316905.61281</v>
+        <v>-1316725.19358</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1279495.7722</v>
+        <v>1279573.24741</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1100081.60575</v>
+        <v>-1149298.85689</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>938964.4132800001</v>
+        <v>964503.3404100001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2833445.27901</v>
+        <v>-2890120.03004</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8816583.949260002</v>
+        <v>-8826220.446899999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-6124915.08097</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6754789.307370001</v>
+        <v>-6777728.37816</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3494994.186339999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3383099.5075</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-25055844.479</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>23399</v>
+        <v>23402</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>24926</v>
+        <v>24930</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>26130</v>
+        <v>26139</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>27109</v>
+        <v>27144</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>28661</v>
+        <v>28736</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>30233</v>
+        <v>30371</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>31917</v>
+        <v>32290</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>34322</v>
+        <v>34514</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>37373</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>38938</v>
+        <v>40639</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>41296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>44742</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>47183</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>